--- a/medicine/Enfance/René_Philippe/René_Philippe.xlsx
+++ b/medicine/Enfance/René_Philippe/René_Philippe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Philippe</t>
+          <t>René_Philippe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">René Philippe, nom de plume de René-Philippe Fouya, né le 20 août 1925 à Verviers et mort le 26 décembre 1985 (à 60 ans), est un écrivain belge francophone.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Philippe</t>
+          <t>René_Philippe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">René-Philippe Fouya est surtout connu pour sa série « Sylvie » parue aux éditions Marabout.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Philippe</t>
+          <t>René_Philippe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Les Aventures de Sylvie
-Sylvie hôtesse de l’air, Verviers, Belgique, Marabout, coll. « Marabout mademoiselle », no 5, 1955
+          <t>Série Les Aventures de Sylvie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sylvie hôtesse de l’air, Verviers, Belgique, Marabout, coll. « Marabout mademoiselle », no 5, 1955
 Sylvie a disparu, Verviers, Belgique, Marabout, coll. « Marabout mademoiselle », no 10, 1956
 Sylvie s’en mêle, Verviers, Belgique, Marabout, coll. « Marabout mademoiselle », no 16, 1956
 Sylvie fait du cinéma, Verviers, Belgique, Marabout, coll. « Marabout mademoiselle », no 20, 1956
@@ -642,16 +661,84 @@
 Sylvie - Circonstances atténuantes, Verviers, Belgique, Marabout, coll. « Marabout mademoiselle », no 326, 1974
 Sylvie - Le Pic de l’ami Randol, Verviers, Belgique, Marabout, coll. « Marabout mademoiselle », no 327, 1975
 Sylvie - Nathalie a cœur perdu, Verviers, Belgique, Marabout, coll. « Marabout mademoiselle », no 328, 1975
-Sylvie - Cinq colonnes à la une, Verviers, Belgique, Marabout, coll. « Marabout mademoiselle », no 329, 1975
-Autres romans
-René-Philippe Fouya, La Faim des jours, Paris, Éditions Fayard, 1952, 203 p. (BNF 32122362)
+Sylvie - Cinq colonnes à la une, Verviers, Belgique, Marabout, coll. « Marabout mademoiselle », no 329, 1975</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>René_Philippe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Philippe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>René-Philippe Fouya, La Faim des jours, Paris, Éditions Fayard, 1952, 203 p. (BNF 32122362)
 René-Philippe Fouya, Adora, Paris, Éditions R. Julliard, 1953, 243 p. (BNF 32122361)
 René-Philippe Fouya, Les Chevaliers de la table ronde, Verviers, Belgique, Marabout, coll. « Bibliothèque Marabout - Géant », no G36, 1954, 544 p. (BNF 32122361)
 René-Philippe Fouya, Court-circuit, Bruxelles, Belgique, Éditions Bruylant, coll. « Le Rond-point », 1956, 149 p.
 René-Philippe, L’Étoile d’améthyste, Paris, Éditions Tallandier, coll. « Floralies », no 67 1983, 190 p.  (ISBN 2-235-01477-1)
-Philippe Warn, Les Fêtes de Noëlle, Paris, Mercure de France, coll. « Mercure galant », 1985, 205 p.  (ISBN 2-7152-1380-8)
-Essai
-René-Philippe Fouya, À deux pour le meilleur et pour le pire, Bruxelles, Belgique, Société générale d’éditions, coll. « Amour, couple et famille », 1969, 247 p.</t>
+Philippe Warn, Les Fêtes de Noëlle, Paris, Mercure de France, coll. « Mercure galant », 1985, 205 p.  (ISBN 2-7152-1380-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>René_Philippe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Philippe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Essai</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>René-Philippe Fouya, À deux pour le meilleur et pour le pire, Bruxelles, Belgique, Société générale d’éditions, coll. « Amour, couple et famille », 1969, 247 p.</t>
         </is>
       </c>
     </row>
